--- a/хэши (черн, крас, бел)/black_check_ahash.xlsx
+++ b/хэши (черн, крас, бел)/black_check_ahash.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,6 +429,16 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Хэш</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Время обработки</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Хэммингово расстояние</t>
         </is>
       </c>
@@ -439,8 +449,16 @@
           <t>664e1ea0193db_noisy_image_1_1.jpg</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>26</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1110011111000011110000111100001111000011110000111100001111100111</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.015646</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -449,8 +467,16 @@
           <t>black_chb.jpg</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>26</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1110011111000011110000111100001111000011110000111100001111100111</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -459,8 +485,16 @@
           <t>noisy_image_1_1.jpg</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>26</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1110011111000011110000111100001111000011110000111100001111100111</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.015608</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +503,15 @@
           <t>black.jpg</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100010011100000111100011</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -479,7 +521,15 @@
           <t>black_1.jpg</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100010011100000111100011</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -489,7 +539,15 @@
           <t>black_2.jpg</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100010011100000111100011</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -499,7 +557,15 @@
           <t>black_3.jpg</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100010011100000111100011</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -509,7 +575,15 @@
           <t>black_4.jpg</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100010011100000111100011</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -519,8 +593,16 @@
           <t>black_5.jpg</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>10</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100000011100000111100011</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -529,8 +611,16 @@
           <t>black_6.jpg</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>10</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100000011100000111100011</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.015628</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -539,7 +629,15 @@
           <t>black_32.jpg</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100010011100000111100011</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -549,7 +647,15 @@
           <t>black_33.jpg</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100010011100000111100011</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -559,7 +665,15 @@
           <t>black_34.jpg</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100010011100000111100011</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -569,7 +683,15 @@
           <t>black_35.jpg</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100010011100000111100011</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -579,7 +701,15 @@
           <t>black_36.jpg</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100010011100000111100011</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -589,7 +719,15 @@
           <t>black_37.jpg</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100010011100000111100011</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -599,7 +737,15 @@
           <t>black_38.jpg</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100010011100000111100011</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -609,7 +755,15 @@
           <t>black_39.jpg</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100010011100000111100011</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -619,7 +773,15 @@
           <t>black_40.jpg</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100010011100000111100011</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -629,7 +791,15 @@
           <t>black_41.jpg</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100010011100000111100011</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -639,7 +809,15 @@
           <t>black_42.jpg</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100010011100000111100011</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -649,7 +827,15 @@
           <t>black_col_10.jpg</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100010011100000111100011</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.015618</v>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -659,7 +845,15 @@
           <t>black_col_11.jpg</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100010011100000111100011</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -669,8 +863,16 @@
           <t>black_col_12.jpg</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>10</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100000011100000111100011</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -679,8 +881,16 @@
           <t>black_col_13.jpg</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>10</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100000011100000111100011</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -689,8 +899,16 @@
           <t>black_col_14.jpg</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>10</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100000011100000111100011</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.015632</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -699,8 +917,16 @@
           <t>black_col_15.jpg</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>10</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100000011100000111100011</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -709,8 +935,16 @@
           <t>black_col_16.jpg</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>10</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100000011100000111100011</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -719,8 +953,16 @@
           <t>black_col_17.jpg</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>10</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100000011100000111100011</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01563</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -729,8 +971,16 @@
           <t>black_col_18.jpg</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>10</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100000011100000111100011</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -739,8 +989,16 @@
           <t>black_col_19.jpg</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>10</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100000011100000111100011</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -749,8 +1007,16 @@
           <t>black_col_20.jpg</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>10</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1110001111000001100000011010000110100001100000011100000111100011</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01564</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -759,8 +1025,16 @@
           <t>new_1.jpg</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>34</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1111111111100111110001111100001111000111110001111110011111111111</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="35">
@@ -769,8 +1043,16 @@
           <t>new_2.jpg</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>29</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1110001111001001101000011110000111101101100010011100100111100011</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -779,8 +1061,16 @@
           <t>new_3.jpg</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>33</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1111011111000011100000011110000110000001100000011100001111110111</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -789,8 +1079,16 @@
           <t>new_4.jpg</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>44</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1111111111010011100100011001000011110000111110011111001111110111</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -799,8 +1097,16 @@
           <t>new_5.jpg</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>29</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1111101110000001101100001011000010011001100110011101101111111111</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -809,8 +1115,16 @@
           <t>new_6.jpg</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>32</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1111111111111011100000111000011110000111100001111100111111111111</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="40">
@@ -819,8 +1133,16 @@
           <t>new_7.jpg</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>33</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1111111111000011100000011000000110000001100000011100001111111111</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.015605</v>
+      </c>
+      <c r="D40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -829,8 +1151,16 @@
           <t>new_8.jpg</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>30</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1111111111000101100001011000111110001111100011111101111111111111</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="42">
@@ -839,8 +1169,16 @@
           <t>new_9.jpg</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>30</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1111111111111111110001111100001110000011110000111110011111111111</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="43">
@@ -849,8 +1187,16 @@
           <t>new_10.jpg</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>36</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1111111111000001100000011000100110001101100010011100001111111111</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -859,8 +1205,16 @@
           <t>new_11.jpg</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>31</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1111111111000011100000111000001111001011111100111110011111111111</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.016404</v>
+      </c>
+      <c r="D44" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="45">
@@ -869,8 +1223,16 @@
           <t>new_12.jpg</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>31</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1111111111000001100000011000010110001101100011011100001111111111</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.001201</v>
+      </c>
+      <c r="D45" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="46">
@@ -879,8 +1241,16 @@
           <t>new_13.jpg</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>31</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1111011111101011110000111000000111001011110010111110101111100111</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -889,8 +1259,16 @@
           <t>new_14.jpg</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>33</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1111111111001011100001111000001110000001100111111111111111111111</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.01638</v>
+      </c>
+      <c r="D47" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="48">
@@ -899,8 +1277,16 @@
           <t>new_15.jpg</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>33</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1111011111000011100011011010010100000101100011111100111111101111</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.006692</v>
+      </c>
+      <c r="D48" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -909,8 +1295,16 @@
           <t>new_16.jpg</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>34</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1110011111000011110010011100100111001001110010011100001111100011</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.003047</v>
+      </c>
+      <c r="D49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -919,8 +1313,16 @@
           <t>new_17.jpg</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>32</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1111000111111001110000011100010111000001110000011100101111000011</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -929,8 +1331,16 @@
           <t>new_18.jpg</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>32</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1111111111001011100000010000010100000001100011111101111111111111</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.015695</v>
+      </c>
+      <c r="D51" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="52">
@@ -939,8 +1349,16 @@
           <t>new_19.jpg</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>32</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1111111111001011100000010000010100000001100011111101111111111111</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -949,8 +1367,16 @@
           <t>new_20.jpg</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>36</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1111111111001011100001011000111110001111100011111111111111111111</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.01563</v>
+      </c>
+      <c r="D53" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="54">
@@ -959,8 +1385,16 @@
           <t>new_21.jpg</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>40</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1111101111001001100001010010000000000101000011011100110111101011</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="55">
@@ -969,8 +1403,16 @@
           <t>new_22.jpg</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>30</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1111111111110011110000111000000110000001110000111110001111111111</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.015624</v>
+      </c>
+      <c r="D55" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -979,8 +1421,16 @@
           <t>new_23.jpg</t>
         </is>
       </c>
-      <c r="B56" t="n">
-        <v>27</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1101111110011111001100001011000000110000101100001111101111111111</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="57">
@@ -989,8 +1439,16 @@
           <t>new_24.jpg</t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>23</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1110011111000011110000111100001111000011110000111100011111100111</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.01563</v>
+      </c>
+      <c r="D57" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -999,8 +1457,16 @@
           <t>new_25.jpg</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>38</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1111111111110011100000011000000100000001100010011111101111111111</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.015609</v>
+      </c>
+      <c r="D58" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="59">
@@ -1009,8 +1475,16 @@
           <t>new_26.jpg</t>
         </is>
       </c>
-      <c r="B59" t="n">
-        <v>24</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1111111111000111110000111100001111000011110000111100011111101111</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.015626</v>
+      </c>
+      <c r="D59" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="60">
@@ -1019,8 +1493,16 @@
           <t>new_27.jpg</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>34</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1111101111000011100001111000000110000001111000111111001111111111</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.031253</v>
+      </c>
+      <c r="D60" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="61">
@@ -1029,8 +1511,16 @@
           <t>new_28.jpg</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>26</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1110001111000001100000000000010000000100100011011100110111100011</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.031244</v>
+      </c>
+      <c r="D61" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -1039,8 +1529,16 @@
           <t>new_29.jpg</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>37</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1111101111001011100001111000001100000011100000111000011111111111</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.031259</v>
+      </c>
+      <c r="D62" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="63">
@@ -1049,8 +1547,16 @@
           <t>new_30.jpg</t>
         </is>
       </c>
-      <c r="B63" t="n">
-        <v>38</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1111111111110111110000111100001111000011110000111111011111111111</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.037268</v>
+      </c>
+      <c r="D63" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
